--- a/zillow.xlsx
+++ b/zillow.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="972">
   <si>
     <t>Property Address</t>
   </si>
@@ -958,6 +958,555 @@
     <t>215 W School Ave, Waskom, TX 75692</t>
   </si>
   <si>
+    <t>1618 E Taylor Lake Cir, Livingston, TX 77351</t>
+  </si>
+  <si>
+    <t>21134 Fm 1512, Jewett, TX 75846</t>
+  </si>
+  <si>
+    <t>1102 Fairlane Dr, Ganado, TX 77962</t>
+  </si>
+  <si>
+    <t>10214 Waverunner, Converse, TX 78154</t>
+  </si>
+  <si>
+    <t>402 Ashland Crk, Victoria, TX 77901</t>
+  </si>
+  <si>
+    <t>8046 Pavo Real St, Corpus Christi, TX 78414</t>
+  </si>
+  <si>
+    <t>1405 Jelmak St, Grand Prairie, TX 75050</t>
+  </si>
+  <si>
+    <t>3154 Sandalwood Dr, Port Neches, TX 77651</t>
+  </si>
+  <si>
+    <t>3519 78th Dr, Lubbock, TX 79423</t>
+  </si>
+  <si>
+    <t>7359 E Fm 1396, Telephone, TX 75488</t>
+  </si>
+  <si>
+    <t>181 Missouri St, Emory, TX 75440</t>
+  </si>
+  <si>
+    <t>136 Stephanie Dr, Kerrville, TX 78028</t>
+  </si>
+  <si>
+    <t>6420 Capitol St, Groves, TX 77619</t>
+  </si>
+  <si>
+    <t>3709 Bond St, Rowlett, TX 75088</t>
+  </si>
+  <si>
+    <t>16707 Barkentine Ln, Friendswood, TX 77546</t>
+  </si>
+  <si>
+    <t>6114 Rolling Forest Dr, San Antonio, TX 78250</t>
+  </si>
+  <si>
+    <t>2514 Broad Timbers Dr, Spring, TX 77373</t>
+  </si>
+  <si>
+    <t>1309 Wendel St, El Campo, TX 77437</t>
+  </si>
+  <si>
+    <t>1105 W 12th St, Robert Lee, TX 76945</t>
+  </si>
+  <si>
+    <t>189 Oklahoma St, Van, TX 75790</t>
+  </si>
+  <si>
+    <t>6477 Bell Pointe, Beaumont, TX 77706</t>
+  </si>
+  <si>
+    <t>721 White Bear Trl, Lindale, TX 75771</t>
+  </si>
+  <si>
+    <t>9206 Calabrian Pine Ct, Richmond, TX 77407</t>
+  </si>
+  <si>
+    <t>6209 Timberland Dr, Harlingen, TX 78552</t>
+  </si>
+  <si>
+    <t>3933 Parkhaven Dr, Denton, TX 76210</t>
+  </si>
+  <si>
+    <t>11031 Sagemeadow Ln, Houston, TX 77089</t>
+  </si>
+  <si>
+    <t>4805 French Wood Dr, Arlington, TX 76016</t>
+  </si>
+  <si>
+    <t>7002 Cayman Ct, Amarillo, TX 79124</t>
+  </si>
+  <si>
+    <t>203 Sooner St, Wolfforth, TX 79382</t>
+  </si>
+  <si>
+    <t>122 Canvasback Dr, Clute, TX 77531</t>
+  </si>
+  <si>
+    <t>201 Cenizo St, Junction, TX 76849</t>
+  </si>
+  <si>
+    <t>12743 Brandon Bend Dr, Missouri City, TX 77489</t>
+  </si>
+  <si>
+    <t>5305 Canadian Ave, Midland, TX 79707</t>
+  </si>
+  <si>
+    <t>108 S Bridge St, Jefferson, TX 75657</t>
+  </si>
+  <si>
+    <t>1045 Addison, Paris, TX 75462</t>
+  </si>
+  <si>
+    <t>13430 Frio Parke, San Antonio, TX 78254</t>
+  </si>
+  <si>
+    <t>130 Heron Dr, Los Fresnos, TX 78566</t>
+  </si>
+  <si>
+    <t>2117 Foxcroft Cir, Denton, TX 76209</t>
+  </si>
+  <si>
+    <t>10326 Rainbow Crk, San Antonio, TX 78245</t>
+  </si>
+  <si>
+    <t>519 Charmwood Dr, Chandler, TX 75758</t>
+  </si>
+  <si>
+    <t>907 Sandyland Dr, Lufkin, TX 75904</t>
+  </si>
+  <si>
+    <t>814 Kentucky Dr, Perryton, TX 79070</t>
+  </si>
+  <si>
+    <t>9315 Aniston Blf, Converse, TX 78109</t>
+  </si>
+  <si>
+    <t>309 Blairwood Dr, Fort Worth, TX 76134</t>
+  </si>
+  <si>
+    <t>2361 Willow Dr, Portland, TX 78374</t>
+  </si>
+  <si>
+    <t>13136 Fieldstone Rd, Fort Worth, TX 76244</t>
+  </si>
+  <si>
+    <t>14843 Scenic Sky Way, Houston, TX 77049</t>
+  </si>
+  <si>
+    <t>452 County Road 4830, Winnsboro, TX 75494</t>
+  </si>
+  <si>
+    <t>106 Fir St, Village Mills, TX 77663</t>
+  </si>
+  <si>
+    <t>105 Brooks Cir, La Feria, TX 78559</t>
+  </si>
+  <si>
+    <t>355 Leisure Ln, Montgomery, TX 77356</t>
+  </si>
+  <si>
+    <t>1114 Mulberry Dr, Marble Falls, TX 78654</t>
+  </si>
+  <si>
+    <t>14144 County Road 511, Venus, TX 76084</t>
+  </si>
+  <si>
+    <t>508 Santa Fe, Victoria, TX 77904</t>
+  </si>
+  <si>
+    <t>101 Salina St, Borger, TX 79007</t>
+  </si>
+  <si>
+    <t>384 S Evergreen, Burkeville, TX 75932</t>
+  </si>
+  <si>
+    <t>19 NW Grace Dr, Andrews, TX 79714</t>
+  </si>
+  <si>
+    <t>1102 Knotty Pine Ln, Harlingen, TX 78552</t>
+  </si>
+  <si>
+    <t>3014 Shady Knoll Ln, Bedford, TX 76021</t>
+  </si>
+  <si>
+    <t>8800 Deadwood Ln, Aubrey, TX 76227</t>
+  </si>
+  <si>
+    <t>6021 Grapevine Loop, Brownsville, TX 78526</t>
+  </si>
+  <si>
+    <t>3105 Peachtree St, Corpus Christi, TX 78410</t>
+  </si>
+  <si>
+    <t>1963 Concord St, Vidor, TX 77662</t>
+  </si>
+  <si>
+    <t>5706 Bella Di Giorno Dr, Corpus Christi, TX 78414</t>
+  </si>
+  <si>
+    <t>911 Clearwater Trl, Round Rock, TX 78664</t>
+  </si>
+  <si>
+    <t>1116 Eagle Rdg, Seguin, TX 78155</t>
+  </si>
+  <si>
+    <t>2909 Las Nubes Dr, Weslaco, TX 78599</t>
+  </si>
+  <si>
+    <t>1200 S Brighton Ave, Dallas, TX 75208</t>
+  </si>
+  <si>
+    <t>2009 Renee Dr, Eagle Pass, TX 78852</t>
+  </si>
+  <si>
+    <t>415 E Elizabeth Ave, Palacios, TX 77465</t>
+  </si>
+  <si>
+    <t>1212 Monte Verde Dr, Temple, TX 76504</t>
+  </si>
+  <si>
+    <t>4942 Timber Whip, San Antonio, TX 78250</t>
+  </si>
+  <si>
+    <t>1547 Stewart Dr, Rockwall, TX 75032</t>
+  </si>
+  <si>
+    <t>2217 Christine Dr, Granbury, TX 76048</t>
+  </si>
+  <si>
+    <t>315 Piedmont Ave, San Antonio, TX 78203</t>
+  </si>
+  <si>
+    <t>2201 S Vernon Ave, Dallas, TX 75224</t>
+  </si>
+  <si>
+    <t>6584 Pine Ln, Frisco, TX 75034</t>
+  </si>
+  <si>
+    <t>8815 Spaugh Ct, White Settlement, TX 76108</t>
+  </si>
+  <si>
+    <t>196 McGoodwin St, Rhome, TX 76078</t>
+  </si>
+  <si>
+    <t>127 Boyd St, Buffalo, TX 75831</t>
+  </si>
+  <si>
+    <t>11318 Hampton Dale, San Antonio, TX 78249</t>
+  </si>
+  <si>
+    <t>14575 County Road 3, Stratford, TX 79084</t>
+  </si>
+  <si>
+    <t>8650 Us Highway 82 E, Saint Jo, TX 76265</t>
+  </si>
+  <si>
+    <t>2970 Valwood Pkwy, Farmers Branch, TX 75234</t>
+  </si>
+  <si>
+    <t>2605 Woodland Dr, Weslaco, TX 78596</t>
+  </si>
+  <si>
+    <t>349 Fm 1082, Abilene, TX 79601</t>
+  </si>
+  <si>
+    <t>4327 Mossy Banks Ln, Houston, TX 77068</t>
+  </si>
+  <si>
+    <t>13302 Glen Erica Dr, Houston, TX 77069</t>
+  </si>
+  <si>
+    <t>3021 Concho Bend Dr, Woodway, TX 76712</t>
+  </si>
+  <si>
+    <t>7732 Chasewood Dr, North Richland Hills, TX 76182</t>
+  </si>
+  <si>
+    <t>703 Penton Ln, Waco, TX 76705</t>
+  </si>
+  <si>
+    <t>2609 Jason Dr, Taylor, TX 76574</t>
+  </si>
+  <si>
+    <t>524 Carson Ave, Dumas, TX 79029</t>
+  </si>
+  <si>
+    <t>116 W Akard St, Weatherford, TX 76086</t>
+  </si>
+  <si>
+    <t>2813 Blue Heron Dr, Mesquite, TX 75181</t>
+  </si>
+  <si>
+    <t>8309 Bucknell Dr, Tyler, TX 75703</t>
+  </si>
+  <si>
+    <t>1901 Kittredge Way, Justin, TX 76247</t>
+  </si>
+  <si>
+    <t>15010 Seahorse Dr, Houston, TX 77062</t>
+  </si>
+  <si>
+    <t>2030B Falcon Ridge Dr, Carrollton, TX 75010</t>
+  </si>
+  <si>
+    <t>265 Rs County Rd #1278, Emory, TX 75440</t>
+  </si>
+  <si>
+    <t>707 Jameson St, Weatherford, TX 76086</t>
+  </si>
+  <si>
+    <t>5370 Briana Dr, Paris, TX 75462</t>
+  </si>
+  <si>
+    <t>129 Germantown Cir, Hallsville, TX 75650</t>
+  </si>
+  <si>
+    <t>104 Georgian Oaks, Rockport, TX 78382</t>
+  </si>
+  <si>
+    <t>103 Elm Crest Dr, Rockwall, TX 75087</t>
+  </si>
+  <si>
+    <t>824 Lucy Dr, Alamo, TX 78516</t>
+  </si>
+  <si>
+    <t>2709 Arrowhead Dr, Abilene, TX 79606</t>
+  </si>
+  <si>
+    <t>5029 Cranfill Dr, Dallas, TX 75241</t>
+  </si>
+  <si>
+    <t>2110 Shelton St, San Angelo, TX 76903</t>
+  </si>
+  <si>
+    <t>522 Carson Ave, Dumas, TX 79029</t>
+  </si>
+  <si>
+    <t>1719 Twin Pond Cir, College Station, TX 77845</t>
+  </si>
+  <si>
+    <t>1435 W Rogers Rd, Edinburg, TX 78541</t>
+  </si>
+  <si>
+    <t>385 Little Reba Ranch Rd, Weatherford, TX 76088</t>
+  </si>
+  <si>
+    <t>1798 The Park Dr, Kingsville, TX 78363</t>
+  </si>
+  <si>
+    <t>500 Grayson Ave, McAllen, TX 78504</t>
+  </si>
+  <si>
+    <t>1252 Chace Rd #K, Winnie, TX 77665</t>
+  </si>
+  <si>
+    <t>17215 Misty Creek Dr, Spring, TX 77379</t>
+  </si>
+  <si>
+    <t>4732 Carolina Trace Trl, Fort Worth, TX 76244</t>
+  </si>
+  <si>
+    <t>252 Ridgeland St, Beaumont, TX 77706</t>
+  </si>
+  <si>
+    <t>820 Stacewood Dr, Beaumont, TX 77706</t>
+  </si>
+  <si>
+    <t>127 Conrady Rd, Windthorst, TX 76389</t>
+  </si>
+  <si>
+    <t>1002 Pembroke Ct, Hutto, TX 78634</t>
+  </si>
+  <si>
+    <t>436 George Dolson, Blanco, TX 78606</t>
+  </si>
+  <si>
+    <t>825 Lanshire Ct, Mesquite, TX 75149</t>
+  </si>
+  <si>
+    <t>506 Meadowlark Ln, Winnie, TX 77665</t>
+  </si>
+  <si>
+    <t>16718 Town Glade Dr, Cypress, TX 77429</t>
+  </si>
+  <si>
+    <t>436 Marilu St, Richardson, TX 75080</t>
+  </si>
+  <si>
+    <t>1111 12th St, Galveston, TX 77550</t>
+  </si>
+  <si>
+    <t>49 S Lakeshore Dr, Ransom Canyon, TX 79366</t>
+  </si>
+  <si>
+    <t>15435 Lakeside Dr, Bullard, TX 75757</t>
+  </si>
+  <si>
+    <t>3137 Granbury Ct, Tyler, TX 75707</t>
+  </si>
+  <si>
+    <t>1977 Forest Service Rd #335, Jasper, TX 75951</t>
+  </si>
+  <si>
+    <t>3091 Maverick Dr, Heath, TX 75126</t>
+  </si>
+  <si>
+    <t>103 N Main St, San Angelo, TX 76903</t>
+  </si>
+  <si>
+    <t>44 Samac Ln, Lampasas, TX 76550</t>
+  </si>
+  <si>
+    <t>6814 Abbot Xing, San Antonio, TX 78249</t>
+  </si>
+  <si>
+    <t>11806 Kenosha Ave, Lubbock, TX 79423</t>
+  </si>
+  <si>
+    <t>1703 Indian Oaks Ct, Bedford, TX 76021</t>
+  </si>
+  <si>
+    <t>11541 Petunia Dr, Fort Worth, TX 76244</t>
+  </si>
+  <si>
+    <t>1648 Town Creek Cir, Weatherford, TX 76086</t>
+  </si>
+  <si>
+    <t>791 Ebenezer Rd, Palmer, TX 75152</t>
+  </si>
+  <si>
+    <t>315 Village Grn, Victoria, TX 77904</t>
+  </si>
+  <si>
+    <t>293 Thomas Dr, Martindale, TX 78655</t>
+  </si>
+  <si>
+    <t>2810 Michaels Dr, Temple, TX 76502</t>
+  </si>
+  <si>
+    <t>5500 Duke Ave, McAllen, TX 78504</t>
+  </si>
+  <si>
+    <t>495 E Mather St, New Braunfels, TX 78130</t>
+  </si>
+  <si>
+    <t>341 Sunset, Ingleside, TX 78362</t>
+  </si>
+  <si>
+    <t>447 Agave Flats Dr, New Braunfels, TX 78130</t>
+  </si>
+  <si>
+    <t>1312 Mary Lee Ln, Crockett, TX 75835</t>
+  </si>
+  <si>
+    <t>1030 County Road 1028, Muleshoe, TX 79347</t>
+  </si>
+  <si>
+    <t>4113 Glenwood Dr, Brownwood, TX 76801</t>
+  </si>
+  <si>
+    <t>104 W Harriet St S, Alpine, TX 79830</t>
+  </si>
+  <si>
+    <t>207 Newton St, Valley View, TX 76272</t>
+  </si>
+  <si>
+    <t>504 Village Creek Ct, Boyd, TX 76023</t>
+  </si>
+  <si>
+    <t>13506 White Oak Landing Blvd, Houston, TX 77065</t>
+  </si>
+  <si>
+    <t>12701 N Fm 88, Weslaco, TX 78599</t>
+  </si>
+  <si>
+    <t>2805 Douglas Dr, Midland, TX 79701</t>
+  </si>
+  <si>
+    <t>5106 Wedgefield Rd, Granbury, TX 76049</t>
+  </si>
+  <si>
+    <t>291 Boenig Rd, Woodsboro, TX 78393</t>
+  </si>
+  <si>
+    <t>612 S Avenue M, Olney, TX 76374</t>
+  </si>
+  <si>
+    <t>16 Spring Oaks Rd, Burleson, TX 76028</t>
+  </si>
+  <si>
+    <t>128 Lake Dr, Blackwell, TX 79506</t>
+  </si>
+  <si>
+    <t>424 Hoot Ave, Graford, TX 76449</t>
+  </si>
+  <si>
+    <t>2526 10th St, Port Neches, TX 77651</t>
+  </si>
+  <si>
+    <t>534 Cedar Harbor Ct, Conroe, TX 77304</t>
+  </si>
+  <si>
+    <t>850 Timber Dr, New Braunfels, TX 78130</t>
+  </si>
+  <si>
+    <t>5530 Excalibur Dr, Garland, TX 75044</t>
+  </si>
+  <si>
+    <t>17130 Darien Wing, San Antonio, TX 78247</t>
+  </si>
+  <si>
+    <t>848 Hickory Ave, Rockport, TX 78382</t>
+  </si>
+  <si>
+    <t>42569 State Highway 118, Fort Davis, TX 79734</t>
+  </si>
+  <si>
+    <t>109 Luke Ct, Victoria, TX 77904</t>
+  </si>
+  <si>
+    <t>924 Louise St, Houston, TX 77009</t>
+  </si>
+  <si>
+    <t>8107 Claire Ave, Texarkana, TX 75503</t>
+  </si>
+  <si>
+    <t>3725 Langtry Dr, Amarillo, TX 79109</t>
+  </si>
+  <si>
+    <t>250 NW Lake Dr, Graham, TX 76450</t>
+  </si>
+  <si>
+    <t>712 S Crockett St, Sherman, TX 75090</t>
+  </si>
+  <si>
+    <t>4300 Hidden Creek Dr, Arlington, TX 76016</t>
+  </si>
+  <si>
+    <t>12211 3rd St, Santa Fe, TX 77510</t>
+  </si>
+  <si>
+    <t>74 Legend Rd, Benbrook, TX 76132</t>
+  </si>
+  <si>
+    <t>3208 Tin Top Rd, Weatherford, TX 76087</t>
+  </si>
+  <si>
+    <t>15579 County Road 1261, Flint, TX 75762</t>
+  </si>
+  <si>
+    <t>3348 County Road 4586, Sulphur Springs, TX 75482</t>
+  </si>
+  <si>
+    <t>10935 Shelia, Beaumont, TX 77705</t>
+  </si>
+  <si>
     <t>(956) 551-4268</t>
   </si>
   <si>
@@ -1853,6 +2402,534 @@
   </si>
   <si>
     <t>(903) 926-4434</t>
+  </si>
+  <si>
+    <t>(832) 928-9130</t>
+  </si>
+  <si>
+    <t>(903) 208-0060</t>
+  </si>
+  <si>
+    <t>(903) 987-9431</t>
+  </si>
+  <si>
+    <t>(361) 649-3199</t>
+  </si>
+  <si>
+    <t>(361) 877-2476</t>
+  </si>
+  <si>
+    <t>(214) 810-4161</t>
+  </si>
+  <si>
+    <t>(409) 983-7878</t>
+  </si>
+  <si>
+    <t>(469) 249-0165</t>
+  </si>
+  <si>
+    <t>(580) 695-6078</t>
+  </si>
+  <si>
+    <t>(830) 367-7734</t>
+  </si>
+  <si>
+    <t>(409) 718-7451</t>
+  </si>
+  <si>
+    <t>(214) 783-8791</t>
+  </si>
+  <si>
+    <t>(281) 414-2672</t>
+  </si>
+  <si>
+    <t>(510) 219-1688</t>
+  </si>
+  <si>
+    <t>(720) 318-1028</t>
+  </si>
+  <si>
+    <t>(979) 578-1450</t>
+  </si>
+  <si>
+    <t>(254) 395-5058</t>
+  </si>
+  <si>
+    <t>(903) 920-1200</t>
+  </si>
+  <si>
+    <t>(409) 273-5563</t>
+  </si>
+  <si>
+    <t>(903) 520-2264</t>
+  </si>
+  <si>
+    <t>(281) 757-0922</t>
+  </si>
+  <si>
+    <t>(956) 202-5420</t>
+  </si>
+  <si>
+    <t>(510) 789-8291</t>
+  </si>
+  <si>
+    <t>(832) 987-6532</t>
+  </si>
+  <si>
+    <t>(806) 930-4293</t>
+  </si>
+  <si>
+    <t>(806) 777-1931</t>
+  </si>
+  <si>
+    <t>(979) 864-9972</t>
+  </si>
+  <si>
+    <t>(210) 416-7849</t>
+  </si>
+  <si>
+    <t>(281) 813-9732</t>
+  </si>
+  <si>
+    <t>(432) 425-8127</t>
+  </si>
+  <si>
+    <t>(817) 291-1969</t>
+  </si>
+  <si>
+    <t>(903) 261-3957</t>
+  </si>
+  <si>
+    <t>(518) 309-2488</t>
+  </si>
+  <si>
+    <t>(956) 371-2846</t>
+  </si>
+  <si>
+    <t>(225) 937-8647</t>
+  </si>
+  <si>
+    <t>(210) 834-0706</t>
+  </si>
+  <si>
+    <t>(903) 287-0525</t>
+  </si>
+  <si>
+    <t>(936) 635-8204</t>
+  </si>
+  <si>
+    <t>(806) 202-4617</t>
+  </si>
+  <si>
+    <t>(210) 646-4529</t>
+  </si>
+  <si>
+    <t>(469) 263-0992</t>
+  </si>
+  <si>
+    <t>(361) 960-0231</t>
+  </si>
+  <si>
+    <t>(817) 619-4627</t>
+  </si>
+  <si>
+    <t>(702) 657-6323</t>
+  </si>
+  <si>
+    <t>(903) 520-1438</t>
+  </si>
+  <si>
+    <t>(409) 728-7668</t>
+  </si>
+  <si>
+    <t>(956) 460-9972</t>
+  </si>
+  <si>
+    <t>(936) 218-6454</t>
+  </si>
+  <si>
+    <t>(512) 658-6270</t>
+  </si>
+  <si>
+    <t>(682) 347-3416</t>
+  </si>
+  <si>
+    <t>(361) 550-8123</t>
+  </si>
+  <si>
+    <t>(806) 275-0748</t>
+  </si>
+  <si>
+    <t>(409) 565-2511</t>
+  </si>
+  <si>
+    <t>(432) 208-3141</t>
+  </si>
+  <si>
+    <t>(713) 397-7845</t>
+  </si>
+  <si>
+    <t>(817) 683-0031</t>
+  </si>
+  <si>
+    <t>(916) 798-5172</t>
+  </si>
+  <si>
+    <t>(949) 292-6089</t>
+  </si>
+  <si>
+    <t>(361) 455-3849</t>
+  </si>
+  <si>
+    <t>(409) 365-9027</t>
+  </si>
+  <si>
+    <t>(361) 549-4255</t>
+  </si>
+  <si>
+    <t>(512) 744-5344</t>
+  </si>
+  <si>
+    <t>(956) 404-4827</t>
+  </si>
+  <si>
+    <t>(830) 888-9861</t>
+  </si>
+  <si>
+    <t>(361) 920-1555</t>
+  </si>
+  <si>
+    <t>(254) 313-3834</t>
+  </si>
+  <si>
+    <t>(952) 994-9006</t>
+  </si>
+  <si>
+    <t>(469) 338-9883</t>
+  </si>
+  <si>
+    <t>(903) 292-2772</t>
+  </si>
+  <si>
+    <t>(210) 848-6220</t>
+  </si>
+  <si>
+    <t>(214) 727-1180</t>
+  </si>
+  <si>
+    <t>(972) 966-9898</t>
+  </si>
+  <si>
+    <t>(214) 399-6766</t>
+  </si>
+  <si>
+    <t>(812) 668-0419</t>
+  </si>
+  <si>
+    <t>(903) 388-6020</t>
+  </si>
+  <si>
+    <t>(713) 560-8823</t>
+  </si>
+  <si>
+    <t>(870) 253-2280</t>
+  </si>
+  <si>
+    <t>(303) 944-4073</t>
+  </si>
+  <si>
+    <t>(352) 364-1005</t>
+  </si>
+  <si>
+    <t>(956) 363-0090</t>
+  </si>
+  <si>
+    <t>(325) 669-7824</t>
+  </si>
+  <si>
+    <t>(713) 588-5878</t>
+  </si>
+  <si>
+    <t>(305) 978-1036</t>
+  </si>
+  <si>
+    <t>(208) 305-7217</t>
+  </si>
+  <si>
+    <t>(425) 280-3464</t>
+  </si>
+  <si>
+    <t>(252) 367-0439</t>
+  </si>
+  <si>
+    <t>(512) 593-2470</t>
+  </si>
+  <si>
+    <t>(806) 681-0435</t>
+  </si>
+  <si>
+    <t>(951) 972-6650</t>
+  </si>
+  <si>
+    <t>(631) 522-0066</t>
+  </si>
+  <si>
+    <t>(903) 630-0026</t>
+  </si>
+  <si>
+    <t>(214) 886-4847</t>
+  </si>
+  <si>
+    <t>(214) 226-1722</t>
+  </si>
+  <si>
+    <t>(817) 771-9198</t>
+  </si>
+  <si>
+    <t>(817) 223-7736</t>
+  </si>
+  <si>
+    <t>(903) 517-8308</t>
+  </si>
+  <si>
+    <t>(903) 452-1340</t>
+  </si>
+  <si>
+    <t>(541) 350-6925</t>
+  </si>
+  <si>
+    <t>(214) 620-9349</t>
+  </si>
+  <si>
+    <t>(903) 241-0958</t>
+  </si>
+  <si>
+    <t>(325) 668-3736</t>
+  </si>
+  <si>
+    <t>(214) 460-3274</t>
+  </si>
+  <si>
+    <t>(325) 716-0366</t>
+  </si>
+  <si>
+    <t>(979) 574-0602</t>
+  </si>
+  <si>
+    <t>(956) 207-1645</t>
+  </si>
+  <si>
+    <t>(832) 928-4030</t>
+  </si>
+  <si>
+    <t>(361) 459-9035</t>
+  </si>
+  <si>
+    <t>(956) 573-3973</t>
+  </si>
+  <si>
+    <t>(713) 560-8228</t>
+  </si>
+  <si>
+    <t>(832) 928-0812</t>
+  </si>
+  <si>
+    <t>(817) 239-8403</t>
+  </si>
+  <si>
+    <t>(409) 963-4852</t>
+  </si>
+  <si>
+    <t>(409) 893-1893</t>
+  </si>
+  <si>
+    <t>(940) 631-5033</t>
+  </si>
+  <si>
+    <t>(941) 350-5121</t>
+  </si>
+  <si>
+    <t>(512) 961-9692</t>
+  </si>
+  <si>
+    <t>(214) 243-5274</t>
+  </si>
+  <si>
+    <t>(409) 673-4301</t>
+  </si>
+  <si>
+    <t>(281) 788-7143</t>
+  </si>
+  <si>
+    <t>(469) 834-2676</t>
+  </si>
+  <si>
+    <t>(316) 761-4562</t>
+  </si>
+  <si>
+    <t>(806) 252-8967</t>
+  </si>
+  <si>
+    <t>(903) 504-1057</t>
+  </si>
+  <si>
+    <t>(417) 847-7128</t>
+  </si>
+  <si>
+    <t>(409) 384-2594</t>
+  </si>
+  <si>
+    <t>(469) 819-1027</t>
+  </si>
+  <si>
+    <t>(325) 655-5577</t>
+  </si>
+  <si>
+    <t>(512) 914-2066</t>
+  </si>
+  <si>
+    <t>(201) 264-6479</t>
+  </si>
+  <si>
+    <t>(806) 777-7100</t>
+  </si>
+  <si>
+    <t>(817) 992-0789</t>
+  </si>
+  <si>
+    <t>(817) 907-9271</t>
+  </si>
+  <si>
+    <t>(806) 223-6955</t>
+  </si>
+  <si>
+    <t>(970) 209-3956</t>
+  </si>
+  <si>
+    <t>(210) 355-7867</t>
+  </si>
+  <si>
+    <t>(832) 766-6799</t>
+  </si>
+  <si>
+    <t>(254) 718-1889</t>
+  </si>
+  <si>
+    <t>(956) 450-2461</t>
+  </si>
+  <si>
+    <t>(830) 832-2211</t>
+  </si>
+  <si>
+    <t>(361) 402-5393</t>
+  </si>
+  <si>
+    <t>(830) 730-0513</t>
+  </si>
+  <si>
+    <t>(936) 852-3505</t>
+  </si>
+  <si>
+    <t>(806) 787-0917</t>
+  </si>
+  <si>
+    <t>(817) 798-2911</t>
+  </si>
+  <si>
+    <t>(303) 709-7965</t>
+  </si>
+  <si>
+    <t>(817) 504-1969</t>
+  </si>
+  <si>
+    <t>(817) 966-4203</t>
+  </si>
+  <si>
+    <t>(281) 733-9675</t>
+  </si>
+  <si>
+    <t>(956) 274-5020</t>
+  </si>
+  <si>
+    <t>(470) 378-6179</t>
+  </si>
+  <si>
+    <t>(817) 736-5110</t>
+  </si>
+  <si>
+    <t>(361) 543-6509</t>
+  </si>
+  <si>
+    <t>(575) 791-2155</t>
+  </si>
+  <si>
+    <t>(817) 891-6285</t>
+  </si>
+  <si>
+    <t>(575) 390-1590</t>
+  </si>
+  <si>
+    <t>(817) 797-9538</t>
+  </si>
+  <si>
+    <t>(409) 719-2403</t>
+  </si>
+  <si>
+    <t>(813) 997-7144</t>
+  </si>
+  <si>
+    <t>(714) 293-6361</t>
+  </si>
+  <si>
+    <t>(469) 478-8876</t>
+  </si>
+  <si>
+    <t>(210) 716-7306</t>
+  </si>
+  <si>
+    <t>(361) 230-4555</t>
+  </si>
+  <si>
+    <t>(432) 249-1066</t>
+  </si>
+  <si>
+    <t>(361) 212-0167</t>
+  </si>
+  <si>
+    <t>(713) 412-8130</t>
+  </si>
+  <si>
+    <t>(940) 641-1231</t>
+  </si>
+  <si>
+    <t>(806) 223-9383</t>
+  </si>
+  <si>
+    <t>(360) 584-3637</t>
+  </si>
+  <si>
+    <t>(972) 841-2925</t>
+  </si>
+  <si>
+    <t>(813) 365-7061</t>
+  </si>
+  <si>
+    <t>(409) 256-5893</t>
+  </si>
+  <si>
+    <t>(817) 991-9625</t>
+  </si>
+  <si>
+    <t>(480) 518-4218</t>
+  </si>
+  <si>
+    <t>(903) 245-5514</t>
+  </si>
+  <si>
+    <t>(903) 335-0927</t>
+  </si>
+  <si>
+    <t>(281) 650-0812</t>
   </si>
 </sst>
 </file>
@@ -2210,7 +3287,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B313"/>
+  <dimension ref="A1:B496"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2229,7 +3306,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>314</v>
+        <v>497</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2237,7 +3314,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>315</v>
+        <v>498</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2245,7 +3322,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>316</v>
+        <v>499</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2253,7 +3330,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>317</v>
+        <v>500</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2261,7 +3338,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>318</v>
+        <v>501</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2269,7 +3346,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>319</v>
+        <v>502</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2277,7 +3354,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>320</v>
+        <v>503</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2285,7 +3362,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>321</v>
+        <v>504</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2293,7 +3370,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>322</v>
+        <v>505</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2301,7 +3378,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>323</v>
+        <v>506</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2309,7 +3386,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>324</v>
+        <v>507</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2317,7 +3394,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>325</v>
+        <v>508</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2325,7 +3402,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>326</v>
+        <v>509</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -2333,7 +3410,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>327</v>
+        <v>510</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -2341,7 +3418,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>328</v>
+        <v>511</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -2349,7 +3426,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>329</v>
+        <v>512</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -2357,7 +3434,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>330</v>
+        <v>513</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -2365,7 +3442,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>331</v>
+        <v>514</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -2373,7 +3450,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>332</v>
+        <v>515</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -2381,7 +3458,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>333</v>
+        <v>516</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -2389,7 +3466,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>334</v>
+        <v>517</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -2397,7 +3474,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>335</v>
+        <v>518</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -2405,7 +3482,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>336</v>
+        <v>519</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -2413,7 +3490,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>337</v>
+        <v>520</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -2421,7 +3498,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>338</v>
+        <v>521</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -2429,7 +3506,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>339</v>
+        <v>522</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -2437,7 +3514,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>340</v>
+        <v>523</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -2445,7 +3522,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>341</v>
+        <v>524</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -2453,7 +3530,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>342</v>
+        <v>525</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -2461,7 +3538,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>343</v>
+        <v>526</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -2469,7 +3546,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>344</v>
+        <v>527</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -2477,7 +3554,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>345</v>
+        <v>528</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -2485,7 +3562,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>346</v>
+        <v>529</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -2493,7 +3570,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>347</v>
+        <v>530</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -2501,7 +3578,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>348</v>
+        <v>531</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -2509,7 +3586,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>349</v>
+        <v>532</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -2517,7 +3594,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>350</v>
+        <v>533</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -2525,7 +3602,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>351</v>
+        <v>534</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -2533,7 +3610,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>352</v>
+        <v>535</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -2541,7 +3618,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>353</v>
+        <v>536</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -2549,7 +3626,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>354</v>
+        <v>537</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -2557,7 +3634,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>355</v>
+        <v>538</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -2565,7 +3642,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>356</v>
+        <v>539</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -2573,7 +3650,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>357</v>
+        <v>540</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -2581,7 +3658,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>358</v>
+        <v>541</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -2589,7 +3666,7 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>359</v>
+        <v>542</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -2597,7 +3674,7 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>350</v>
+        <v>533</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -2605,7 +3682,7 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>360</v>
+        <v>543</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -2613,7 +3690,7 @@
         <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>361</v>
+        <v>544</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -2621,7 +3698,7 @@
         <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>362</v>
+        <v>545</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -2629,7 +3706,7 @@
         <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>363</v>
+        <v>546</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -2637,7 +3714,7 @@
         <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>364</v>
+        <v>547</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -2645,7 +3722,7 @@
         <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>365</v>
+        <v>548</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -2653,7 +3730,7 @@
         <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>366</v>
+        <v>549</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -2661,7 +3738,7 @@
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>367</v>
+        <v>550</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -2669,7 +3746,7 @@
         <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>368</v>
+        <v>551</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -2677,7 +3754,7 @@
         <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>369</v>
+        <v>552</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -2685,7 +3762,7 @@
         <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>370</v>
+        <v>553</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -2693,7 +3770,7 @@
         <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>371</v>
+        <v>554</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -2701,7 +3778,7 @@
         <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>372</v>
+        <v>555</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -2709,7 +3786,7 @@
         <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>373</v>
+        <v>556</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -2717,7 +3794,7 @@
         <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>374</v>
+        <v>557</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -2725,7 +3802,7 @@
         <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>375</v>
+        <v>558</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -2733,7 +3810,7 @@
         <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>376</v>
+        <v>559</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -2741,7 +3818,7 @@
         <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>377</v>
+        <v>560</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -2749,7 +3826,7 @@
         <v>67</v>
       </c>
       <c r="B67" t="s">
-        <v>378</v>
+        <v>561</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -2757,7 +3834,7 @@
         <v>68</v>
       </c>
       <c r="B68" t="s">
-        <v>379</v>
+        <v>562</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -2765,7 +3842,7 @@
         <v>69</v>
       </c>
       <c r="B69" t="s">
-        <v>380</v>
+        <v>563</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -2773,7 +3850,7 @@
         <v>70</v>
       </c>
       <c r="B70" t="s">
-        <v>381</v>
+        <v>564</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -2781,7 +3858,7 @@
         <v>71</v>
       </c>
       <c r="B71" t="s">
-        <v>382</v>
+        <v>565</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -2789,7 +3866,7 @@
         <v>72</v>
       </c>
       <c r="B72" t="s">
-        <v>383</v>
+        <v>566</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -2797,7 +3874,7 @@
         <v>73</v>
       </c>
       <c r="B73" t="s">
-        <v>384</v>
+        <v>567</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -2805,7 +3882,7 @@
         <v>74</v>
       </c>
       <c r="B74" t="s">
-        <v>385</v>
+        <v>568</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -2813,7 +3890,7 @@
         <v>75</v>
       </c>
       <c r="B75" t="s">
-        <v>386</v>
+        <v>569</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -2821,7 +3898,7 @@
         <v>76</v>
       </c>
       <c r="B76" t="s">
-        <v>387</v>
+        <v>570</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -2829,7 +3906,7 @@
         <v>77</v>
       </c>
       <c r="B77" t="s">
-        <v>388</v>
+        <v>571</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -2837,7 +3914,7 @@
         <v>78</v>
       </c>
       <c r="B78" t="s">
-        <v>389</v>
+        <v>572</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -2845,7 +3922,7 @@
         <v>79</v>
       </c>
       <c r="B79" t="s">
-        <v>390</v>
+        <v>573</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -2853,7 +3930,7 @@
         <v>80</v>
       </c>
       <c r="B80" t="s">
-        <v>391</v>
+        <v>574</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -2861,7 +3938,7 @@
         <v>81</v>
       </c>
       <c r="B81" t="s">
-        <v>392</v>
+        <v>575</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -2869,7 +3946,7 @@
         <v>82</v>
       </c>
       <c r="B82" t="s">
-        <v>393</v>
+        <v>576</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -2877,7 +3954,7 @@
         <v>83</v>
       </c>
       <c r="B83" t="s">
-        <v>394</v>
+        <v>577</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -2885,7 +3962,7 @@
         <v>84</v>
       </c>
       <c r="B84" t="s">
-        <v>395</v>
+        <v>578</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -2893,7 +3970,7 @@
         <v>85</v>
       </c>
       <c r="B85" t="s">
-        <v>396</v>
+        <v>579</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -2901,7 +3978,7 @@
         <v>86</v>
       </c>
       <c r="B86" t="s">
-        <v>397</v>
+        <v>580</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -2909,7 +3986,7 @@
         <v>87</v>
       </c>
       <c r="B87" t="s">
-        <v>398</v>
+        <v>581</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -2917,7 +3994,7 @@
         <v>88</v>
       </c>
       <c r="B88" t="s">
-        <v>399</v>
+        <v>582</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -2925,7 +4002,7 @@
         <v>89</v>
       </c>
       <c r="B89" t="s">
-        <v>400</v>
+        <v>583</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -2933,7 +4010,7 @@
         <v>90</v>
       </c>
       <c r="B90" t="s">
-        <v>401</v>
+        <v>584</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -2941,7 +4018,7 @@
         <v>91</v>
       </c>
       <c r="B91" t="s">
-        <v>402</v>
+        <v>585</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -2949,7 +4026,7 @@
         <v>92</v>
       </c>
       <c r="B92" t="s">
-        <v>403</v>
+        <v>586</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -2957,7 +4034,7 @@
         <v>93</v>
       </c>
       <c r="B93" t="s">
-        <v>404</v>
+        <v>587</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -2965,7 +4042,7 @@
         <v>94</v>
       </c>
       <c r="B94" t="s">
-        <v>405</v>
+        <v>588</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -2973,7 +4050,7 @@
         <v>95</v>
       </c>
       <c r="B95" t="s">
-        <v>406</v>
+        <v>589</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -2981,7 +4058,7 @@
         <v>96</v>
       </c>
       <c r="B96" t="s">
-        <v>407</v>
+        <v>590</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -2989,7 +4066,7 @@
         <v>97</v>
       </c>
       <c r="B97" t="s">
-        <v>408</v>
+        <v>591</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -2997,7 +4074,7 @@
         <v>98</v>
       </c>
       <c r="B98" t="s">
-        <v>409</v>
+        <v>592</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -3005,7 +4082,7 @@
         <v>99</v>
       </c>
       <c r="B99" t="s">
-        <v>410</v>
+        <v>593</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -3013,7 +4090,7 @@
         <v>100</v>
       </c>
       <c r="B100" t="s">
-        <v>411</v>
+        <v>594</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -3021,7 +4098,7 @@
         <v>101</v>
       </c>
       <c r="B101" t="s">
-        <v>412</v>
+        <v>595</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -3029,7 +4106,7 @@
         <v>102</v>
       </c>
       <c r="B102" t="s">
-        <v>413</v>
+        <v>596</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -3037,7 +4114,7 @@
         <v>103</v>
       </c>
       <c r="B103" t="s">
-        <v>414</v>
+        <v>597</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -3045,7 +4122,7 @@
         <v>104</v>
       </c>
       <c r="B104" t="s">
-        <v>415</v>
+        <v>598</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -3053,7 +4130,7 @@
         <v>105</v>
       </c>
       <c r="B105" t="s">
-        <v>416</v>
+        <v>599</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -3061,7 +4138,7 @@
         <v>106</v>
       </c>
       <c r="B106" t="s">
-        <v>417</v>
+        <v>600</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -3069,7 +4146,7 @@
         <v>107</v>
       </c>
       <c r="B107" t="s">
-        <v>418</v>
+        <v>601</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -3077,7 +4154,7 @@
         <v>108</v>
       </c>
       <c r="B108" t="s">
-        <v>419</v>
+        <v>602</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -3085,7 +4162,7 @@
         <v>109</v>
       </c>
       <c r="B109" t="s">
-        <v>420</v>
+        <v>603</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -3093,7 +4170,7 @@
         <v>110</v>
       </c>
       <c r="B110" t="s">
-        <v>421</v>
+        <v>604</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -3101,7 +4178,7 @@
         <v>111</v>
       </c>
       <c r="B111" t="s">
-        <v>422</v>
+        <v>605</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -3109,7 +4186,7 @@
         <v>112</v>
       </c>
       <c r="B112" t="s">
-        <v>423</v>
+        <v>606</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -3117,7 +4194,7 @@
         <v>113</v>
       </c>
       <c r="B113" t="s">
-        <v>424</v>
+        <v>607</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -3125,7 +4202,7 @@
         <v>114</v>
       </c>
       <c r="B114" t="s">
-        <v>425</v>
+        <v>608</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -3133,7 +4210,7 @@
         <v>115</v>
       </c>
       <c r="B115" t="s">
-        <v>426</v>
+        <v>609</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -3141,7 +4218,7 @@
         <v>116</v>
       </c>
       <c r="B116" t="s">
-        <v>427</v>
+        <v>610</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -3149,7 +4226,7 @@
         <v>117</v>
       </c>
       <c r="B117" t="s">
-        <v>428</v>
+        <v>611</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -3157,7 +4234,7 @@
         <v>118</v>
       </c>
       <c r="B118" t="s">
-        <v>429</v>
+        <v>612</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -3165,7 +4242,7 @@
         <v>119</v>
       </c>
       <c r="B119" t="s">
-        <v>430</v>
+        <v>613</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -3173,7 +4250,7 @@
         <v>120</v>
       </c>
       <c r="B120" t="s">
-        <v>431</v>
+        <v>614</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -3181,7 +4258,7 @@
         <v>121</v>
       </c>
       <c r="B121" t="s">
-        <v>432</v>
+        <v>615</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -3189,7 +4266,7 @@
         <v>122</v>
       </c>
       <c r="B122" t="s">
-        <v>433</v>
+        <v>616</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -3197,7 +4274,7 @@
         <v>123</v>
       </c>
       <c r="B123" t="s">
-        <v>434</v>
+        <v>617</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -3205,7 +4282,7 @@
         <v>124</v>
       </c>
       <c r="B124" t="s">
-        <v>435</v>
+        <v>618</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -3213,7 +4290,7 @@
         <v>125</v>
       </c>
       <c r="B125" t="s">
-        <v>436</v>
+        <v>619</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -3221,7 +4298,7 @@
         <v>126</v>
       </c>
       <c r="B126" t="s">
-        <v>437</v>
+        <v>620</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -3229,7 +4306,7 @@
         <v>127</v>
       </c>
       <c r="B127" t="s">
-        <v>438</v>
+        <v>621</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -3237,7 +4314,7 @@
         <v>128</v>
       </c>
       <c r="B128" t="s">
-        <v>439</v>
+        <v>622</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -3245,7 +4322,7 @@
         <v>129</v>
       </c>
       <c r="B129" t="s">
-        <v>440</v>
+        <v>623</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -3253,7 +4330,7 @@
         <v>130</v>
       </c>
       <c r="B130" t="s">
-        <v>441</v>
+        <v>624</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -3261,7 +4338,7 @@
         <v>131</v>
       </c>
       <c r="B131" t="s">
-        <v>442</v>
+        <v>625</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -3269,7 +4346,7 @@
         <v>132</v>
       </c>
       <c r="B132" t="s">
-        <v>443</v>
+        <v>626</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -3277,7 +4354,7 @@
         <v>133</v>
       </c>
       <c r="B133" t="s">
-        <v>444</v>
+        <v>627</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -3285,7 +4362,7 @@
         <v>134</v>
       </c>
       <c r="B134" t="s">
-        <v>445</v>
+        <v>628</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -3293,7 +4370,7 @@
         <v>135</v>
       </c>
       <c r="B135" t="s">
-        <v>446</v>
+        <v>629</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -3301,7 +4378,7 @@
         <v>136</v>
       </c>
       <c r="B136" t="s">
-        <v>447</v>
+        <v>630</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -3309,7 +4386,7 @@
         <v>137</v>
       </c>
       <c r="B137" t="s">
-        <v>448</v>
+        <v>631</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -3317,7 +4394,7 @@
         <v>138</v>
       </c>
       <c r="B138" t="s">
-        <v>449</v>
+        <v>632</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -3325,7 +4402,7 @@
         <v>139</v>
       </c>
       <c r="B139" t="s">
-        <v>450</v>
+        <v>633</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -3333,7 +4410,7 @@
         <v>140</v>
       </c>
       <c r="B140" t="s">
-        <v>451</v>
+        <v>634</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -3341,7 +4418,7 @@
         <v>141</v>
       </c>
       <c r="B141" t="s">
-        <v>452</v>
+        <v>635</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -3349,7 +4426,7 @@
         <v>142</v>
       </c>
       <c r="B142" t="s">
-        <v>453</v>
+        <v>636</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -3357,7 +4434,7 @@
         <v>143</v>
       </c>
       <c r="B143" t="s">
-        <v>454</v>
+        <v>637</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -3365,7 +4442,7 @@
         <v>144</v>
       </c>
       <c r="B144" t="s">
-        <v>455</v>
+        <v>638</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -3373,7 +4450,7 @@
         <v>145</v>
       </c>
       <c r="B145" t="s">
-        <v>456</v>
+        <v>639</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -3381,7 +4458,7 @@
         <v>146</v>
       </c>
       <c r="B146" t="s">
-        <v>457</v>
+        <v>640</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -3389,7 +4466,7 @@
         <v>147</v>
       </c>
       <c r="B147" t="s">
-        <v>458</v>
+        <v>641</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -3397,7 +4474,7 @@
         <v>148</v>
       </c>
       <c r="B148" t="s">
-        <v>341</v>
+        <v>524</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -3405,7 +4482,7 @@
         <v>149</v>
       </c>
       <c r="B149" t="s">
-        <v>341</v>
+        <v>524</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -3413,7 +4490,7 @@
         <v>150</v>
       </c>
       <c r="B150" t="s">
-        <v>459</v>
+        <v>642</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -3421,7 +4498,7 @@
         <v>151</v>
       </c>
       <c r="B151" t="s">
-        <v>460</v>
+        <v>643</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -3429,7 +4506,7 @@
         <v>152</v>
       </c>
       <c r="B152" t="s">
-        <v>461</v>
+        <v>644</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -3437,7 +4514,7 @@
         <v>153</v>
       </c>
       <c r="B153" t="s">
-        <v>462</v>
+        <v>645</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -3445,7 +4522,7 @@
         <v>154</v>
       </c>
       <c r="B154" t="s">
-        <v>463</v>
+        <v>646</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -3453,7 +4530,7 @@
         <v>155</v>
       </c>
       <c r="B155" t="s">
-        <v>464</v>
+        <v>647</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -3461,7 +4538,7 @@
         <v>156</v>
       </c>
       <c r="B156" t="s">
-        <v>464</v>
+        <v>647</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -3469,7 +4546,7 @@
         <v>157</v>
       </c>
       <c r="B157" t="s">
-        <v>426</v>
+        <v>609</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -3477,7 +4554,7 @@
         <v>158</v>
       </c>
       <c r="B158" t="s">
-        <v>465</v>
+        <v>648</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -3485,7 +4562,7 @@
         <v>159</v>
       </c>
       <c r="B159" t="s">
-        <v>466</v>
+        <v>649</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -3493,7 +4570,7 @@
         <v>160</v>
       </c>
       <c r="B160" t="s">
-        <v>467</v>
+        <v>650</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -3501,7 +4578,7 @@
         <v>161</v>
       </c>
       <c r="B161" t="s">
-        <v>468</v>
+        <v>651</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -3509,7 +4586,7 @@
         <v>162</v>
       </c>
       <c r="B162" t="s">
-        <v>469</v>
+        <v>652</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -3517,7 +4594,7 @@
         <v>163</v>
       </c>
       <c r="B163" t="s">
-        <v>470</v>
+        <v>653</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -3525,7 +4602,7 @@
         <v>164</v>
       </c>
       <c r="B164" t="s">
-        <v>471</v>
+        <v>654</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -3533,7 +4610,7 @@
         <v>165</v>
       </c>
       <c r="B165" t="s">
-        <v>472</v>
+        <v>655</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -3541,7 +4618,7 @@
         <v>166</v>
       </c>
       <c r="B166" t="s">
-        <v>473</v>
+        <v>656</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -3549,7 +4626,7 @@
         <v>167</v>
       </c>
       <c r="B167" t="s">
-        <v>474</v>
+        <v>657</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -3557,7 +4634,7 @@
         <v>168</v>
       </c>
       <c r="B168" t="s">
-        <v>475</v>
+        <v>658</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -3565,7 +4642,7 @@
         <v>169</v>
       </c>
       <c r="B169" t="s">
-        <v>476</v>
+        <v>659</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -3573,7 +4650,7 @@
         <v>170</v>
       </c>
       <c r="B170" t="s">
-        <v>477</v>
+        <v>660</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -3581,7 +4658,7 @@
         <v>171</v>
       </c>
       <c r="B171" t="s">
-        <v>478</v>
+        <v>661</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -3589,7 +4666,7 @@
         <v>172</v>
       </c>
       <c r="B172" t="s">
-        <v>479</v>
+        <v>662</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -3597,7 +4674,7 @@
         <v>173</v>
       </c>
       <c r="B173" t="s">
-        <v>480</v>
+        <v>663</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -3605,7 +4682,7 @@
         <v>174</v>
       </c>
       <c r="B174" t="s">
-        <v>481</v>
+        <v>664</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -3613,7 +4690,7 @@
         <v>175</v>
       </c>
       <c r="B175" t="s">
-        <v>482</v>
+        <v>665</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -3621,7 +4698,7 @@
         <v>176</v>
       </c>
       <c r="B176" t="s">
-        <v>482</v>
+        <v>665</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -3629,7 +4706,7 @@
         <v>177</v>
       </c>
       <c r="B177" t="s">
-        <v>482</v>
+        <v>665</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -3637,7 +4714,7 @@
         <v>178</v>
       </c>
       <c r="B178" t="s">
-        <v>483</v>
+        <v>666</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -3645,7 +4722,7 @@
         <v>179</v>
       </c>
       <c r="B179" t="s">
-        <v>484</v>
+        <v>667</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -3653,7 +4730,7 @@
         <v>180</v>
       </c>
       <c r="B180" t="s">
-        <v>485</v>
+        <v>668</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -3661,7 +4738,7 @@
         <v>181</v>
       </c>
       <c r="B181" t="s">
-        <v>486</v>
+        <v>669</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -3669,7 +4746,7 @@
         <v>182</v>
       </c>
       <c r="B182" t="s">
-        <v>487</v>
+        <v>670</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -3677,7 +4754,7 @@
         <v>183</v>
       </c>
       <c r="B183" t="s">
-        <v>488</v>
+        <v>671</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -3685,7 +4762,7 @@
         <v>184</v>
       </c>
       <c r="B184" t="s">
-        <v>489</v>
+        <v>672</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -3693,7 +4770,7 @@
         <v>185</v>
       </c>
       <c r="B185" t="s">
-        <v>490</v>
+        <v>673</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -3701,7 +4778,7 @@
         <v>186</v>
       </c>
       <c r="B186" t="s">
-        <v>491</v>
+        <v>674</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -3709,7 +4786,7 @@
         <v>187</v>
       </c>
       <c r="B187" t="s">
-        <v>492</v>
+        <v>675</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -3717,7 +4794,7 @@
         <v>188</v>
       </c>
       <c r="B188" t="s">
-        <v>493</v>
+        <v>676</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -3725,7 +4802,7 @@
         <v>189</v>
       </c>
       <c r="B189" t="s">
-        <v>494</v>
+        <v>677</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -3733,7 +4810,7 @@
         <v>190</v>
       </c>
       <c r="B190" t="s">
-        <v>495</v>
+        <v>678</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -3741,7 +4818,7 @@
         <v>191</v>
       </c>
       <c r="B191" t="s">
-        <v>496</v>
+        <v>679</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -3749,7 +4826,7 @@
         <v>192</v>
       </c>
       <c r="B192" t="s">
-        <v>497</v>
+        <v>680</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -3757,7 +4834,7 @@
         <v>193</v>
       </c>
       <c r="B193" t="s">
-        <v>498</v>
+        <v>681</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -3765,7 +4842,7 @@
         <v>194</v>
       </c>
       <c r="B194" t="s">
-        <v>499</v>
+        <v>682</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -3773,7 +4850,7 @@
         <v>195</v>
       </c>
       <c r="B195" t="s">
-        <v>500</v>
+        <v>683</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -3781,7 +4858,7 @@
         <v>196</v>
       </c>
       <c r="B196" t="s">
-        <v>501</v>
+        <v>684</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -3789,7 +4866,7 @@
         <v>197</v>
       </c>
       <c r="B197" t="s">
-        <v>502</v>
+        <v>685</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -3797,7 +4874,7 @@
         <v>198</v>
       </c>
       <c r="B198" t="s">
-        <v>503</v>
+        <v>686</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -3805,7 +4882,7 @@
         <v>199</v>
       </c>
       <c r="B199" t="s">
-        <v>504</v>
+        <v>687</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -3813,7 +4890,7 @@
         <v>200</v>
       </c>
       <c r="B200" t="s">
-        <v>505</v>
+        <v>688</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -3821,7 +4898,7 @@
         <v>201</v>
       </c>
       <c r="B201" t="s">
-        <v>506</v>
+        <v>689</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -3829,7 +4906,7 @@
         <v>202</v>
       </c>
       <c r="B202" t="s">
-        <v>507</v>
+        <v>690</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -3837,7 +4914,7 @@
         <v>203</v>
       </c>
       <c r="B203" t="s">
-        <v>508</v>
+        <v>691</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -3845,7 +4922,7 @@
         <v>204</v>
       </c>
       <c r="B204" t="s">
-        <v>509</v>
+        <v>692</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -3853,7 +4930,7 @@
         <v>205</v>
       </c>
       <c r="B205" t="s">
-        <v>510</v>
+        <v>693</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -3861,7 +4938,7 @@
         <v>206</v>
       </c>
       <c r="B206" t="s">
-        <v>511</v>
+        <v>694</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -3869,7 +4946,7 @@
         <v>207</v>
       </c>
       <c r="B207" t="s">
-        <v>341</v>
+        <v>524</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -3877,7 +4954,7 @@
         <v>208</v>
       </c>
       <c r="B208" t="s">
-        <v>350</v>
+        <v>533</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -3885,7 +4962,7 @@
         <v>209</v>
       </c>
       <c r="B209" t="s">
-        <v>512</v>
+        <v>695</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -3893,7 +4970,7 @@
         <v>210</v>
       </c>
       <c r="B210" t="s">
-        <v>513</v>
+        <v>696</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -3901,7 +4978,7 @@
         <v>211</v>
       </c>
       <c r="B211" t="s">
-        <v>514</v>
+        <v>697</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -3909,7 +4986,7 @@
         <v>212</v>
       </c>
       <c r="B212" t="s">
-        <v>515</v>
+        <v>698</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -3917,7 +4994,7 @@
         <v>213</v>
       </c>
       <c r="B213" t="s">
-        <v>516</v>
+        <v>699</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -3925,7 +5002,7 @@
         <v>214</v>
       </c>
       <c r="B214" t="s">
-        <v>517</v>
+        <v>700</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -3933,7 +5010,7 @@
         <v>215</v>
       </c>
       <c r="B215" t="s">
-        <v>518</v>
+        <v>701</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -3941,7 +5018,7 @@
         <v>216</v>
       </c>
       <c r="B216" t="s">
-        <v>519</v>
+        <v>702</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -3949,7 +5026,7 @@
         <v>217</v>
       </c>
       <c r="B217" t="s">
-        <v>520</v>
+        <v>703</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -3957,7 +5034,7 @@
         <v>218</v>
       </c>
       <c r="B218" t="s">
-        <v>514</v>
+        <v>697</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -3965,7 +5042,7 @@
         <v>219</v>
       </c>
       <c r="B219" t="s">
-        <v>521</v>
+        <v>704</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -3973,7 +5050,7 @@
         <v>220</v>
       </c>
       <c r="B220" t="s">
-        <v>522</v>
+        <v>705</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -3981,7 +5058,7 @@
         <v>221</v>
       </c>
       <c r="B221" t="s">
-        <v>523</v>
+        <v>706</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -3989,7 +5066,7 @@
         <v>222</v>
       </c>
       <c r="B222" t="s">
-        <v>524</v>
+        <v>707</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -3997,7 +5074,7 @@
         <v>223</v>
       </c>
       <c r="B223" t="s">
-        <v>525</v>
+        <v>708</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -4005,7 +5082,7 @@
         <v>224</v>
       </c>
       <c r="B224" t="s">
-        <v>526</v>
+        <v>709</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -4013,7 +5090,7 @@
         <v>225</v>
       </c>
       <c r="B225" t="s">
-        <v>527</v>
+        <v>710</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -4021,7 +5098,7 @@
         <v>226</v>
       </c>
       <c r="B226" t="s">
-        <v>528</v>
+        <v>711</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -4029,7 +5106,7 @@
         <v>227</v>
       </c>
       <c r="B227" t="s">
-        <v>529</v>
+        <v>712</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -4037,7 +5114,7 @@
         <v>228</v>
       </c>
       <c r="B228" t="s">
-        <v>530</v>
+        <v>713</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -4045,7 +5122,7 @@
         <v>229</v>
       </c>
       <c r="B229" t="s">
-        <v>531</v>
+        <v>714</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -4053,7 +5130,7 @@
         <v>230</v>
       </c>
       <c r="B230" t="s">
-        <v>532</v>
+        <v>715</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -4061,7 +5138,7 @@
         <v>231</v>
       </c>
       <c r="B231" t="s">
-        <v>533</v>
+        <v>716</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -4069,7 +5146,7 @@
         <v>232</v>
       </c>
       <c r="B232" t="s">
-        <v>534</v>
+        <v>717</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -4077,7 +5154,7 @@
         <v>233</v>
       </c>
       <c r="B233" t="s">
-        <v>535</v>
+        <v>718</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -4085,7 +5162,7 @@
         <v>234</v>
       </c>
       <c r="B234" t="s">
-        <v>536</v>
+        <v>719</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -4093,7 +5170,7 @@
         <v>235</v>
       </c>
       <c r="B235" t="s">
-        <v>537</v>
+        <v>720</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -4101,7 +5178,7 @@
         <v>236</v>
       </c>
       <c r="B236" t="s">
-        <v>538</v>
+        <v>721</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -4109,7 +5186,7 @@
         <v>237</v>
       </c>
       <c r="B237" t="s">
-        <v>350</v>
+        <v>533</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -4117,7 +5194,7 @@
         <v>238</v>
       </c>
       <c r="B238" t="s">
-        <v>539</v>
+        <v>722</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -4125,7 +5202,7 @@
         <v>239</v>
       </c>
       <c r="B239" t="s">
-        <v>540</v>
+        <v>723</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -4133,7 +5210,7 @@
         <v>240</v>
       </c>
       <c r="B240" t="s">
-        <v>541</v>
+        <v>724</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -4141,7 +5218,7 @@
         <v>241</v>
       </c>
       <c r="B241" t="s">
-        <v>542</v>
+        <v>725</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -4149,7 +5226,7 @@
         <v>242</v>
       </c>
       <c r="B242" t="s">
-        <v>543</v>
+        <v>726</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -4157,7 +5234,7 @@
         <v>243</v>
       </c>
       <c r="B243" t="s">
-        <v>544</v>
+        <v>727</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -4165,7 +5242,7 @@
         <v>244</v>
       </c>
       <c r="B244" t="s">
-        <v>545</v>
+        <v>728</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -4173,7 +5250,7 @@
         <v>245</v>
       </c>
       <c r="B245" t="s">
-        <v>546</v>
+        <v>729</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -4181,7 +5258,7 @@
         <v>246</v>
       </c>
       <c r="B246" t="s">
-        <v>547</v>
+        <v>730</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -4189,7 +5266,7 @@
         <v>247</v>
       </c>
       <c r="B247" t="s">
-        <v>548</v>
+        <v>731</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -4197,7 +5274,7 @@
         <v>248</v>
       </c>
       <c r="B248" t="s">
-        <v>549</v>
+        <v>732</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -4205,7 +5282,7 @@
         <v>249</v>
       </c>
       <c r="B249" t="s">
-        <v>550</v>
+        <v>733</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -4213,7 +5290,7 @@
         <v>250</v>
       </c>
       <c r="B250" t="s">
-        <v>551</v>
+        <v>734</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -4221,7 +5298,7 @@
         <v>251</v>
       </c>
       <c r="B251" t="s">
-        <v>552</v>
+        <v>735</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -4229,7 +5306,7 @@
         <v>252</v>
       </c>
       <c r="B252" t="s">
-        <v>553</v>
+        <v>736</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -4237,7 +5314,7 @@
         <v>253</v>
       </c>
       <c r="B253" t="s">
-        <v>554</v>
+        <v>737</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -4245,7 +5322,7 @@
         <v>254</v>
       </c>
       <c r="B254" t="s">
-        <v>555</v>
+        <v>738</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -4253,7 +5330,7 @@
         <v>255</v>
       </c>
       <c r="B255" t="s">
-        <v>556</v>
+        <v>739</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -4261,7 +5338,7 @@
         <v>256</v>
       </c>
       <c r="B256" t="s">
-        <v>557</v>
+        <v>740</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -4269,7 +5346,7 @@
         <v>257</v>
       </c>
       <c r="B257" t="s">
-        <v>558</v>
+        <v>741</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -4277,7 +5354,7 @@
         <v>258</v>
       </c>
       <c r="B258" t="s">
-        <v>559</v>
+        <v>742</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -4285,7 +5362,7 @@
         <v>259</v>
       </c>
       <c r="B259" t="s">
-        <v>560</v>
+        <v>743</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -4293,7 +5370,7 @@
         <v>260</v>
       </c>
       <c r="B260" t="s">
-        <v>561</v>
+        <v>744</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -4301,7 +5378,7 @@
         <v>261</v>
       </c>
       <c r="B261" t="s">
-        <v>562</v>
+        <v>745</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -4309,7 +5386,7 @@
         <v>262</v>
       </c>
       <c r="B262" t="s">
-        <v>563</v>
+        <v>746</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -4317,7 +5394,7 @@
         <v>263</v>
       </c>
       <c r="B263" t="s">
-        <v>564</v>
+        <v>747</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -4325,7 +5402,7 @@
         <v>264</v>
       </c>
       <c r="B264" t="s">
-        <v>565</v>
+        <v>748</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -4333,7 +5410,7 @@
         <v>265</v>
       </c>
       <c r="B265" t="s">
-        <v>566</v>
+        <v>749</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -4341,7 +5418,7 @@
         <v>266</v>
       </c>
       <c r="B266" t="s">
-        <v>567</v>
+        <v>750</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -4349,7 +5426,7 @@
         <v>267</v>
       </c>
       <c r="B267" t="s">
-        <v>568</v>
+        <v>751</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -4357,7 +5434,7 @@
         <v>268</v>
       </c>
       <c r="B268" t="s">
-        <v>569</v>
+        <v>752</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -4365,7 +5442,7 @@
         <v>269</v>
       </c>
       <c r="B269" t="s">
-        <v>570</v>
+        <v>753</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -4373,7 +5450,7 @@
         <v>270</v>
       </c>
       <c r="B270" t="s">
-        <v>341</v>
+        <v>524</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -4381,7 +5458,7 @@
         <v>271</v>
       </c>
       <c r="B271" t="s">
-        <v>571</v>
+        <v>754</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -4389,7 +5466,7 @@
         <v>272</v>
       </c>
       <c r="B272" t="s">
-        <v>572</v>
+        <v>755</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -4397,7 +5474,7 @@
         <v>273</v>
       </c>
       <c r="B273" t="s">
-        <v>573</v>
+        <v>756</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -4405,7 +5482,7 @@
         <v>274</v>
       </c>
       <c r="B274" t="s">
-        <v>341</v>
+        <v>524</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -4413,7 +5490,7 @@
         <v>275</v>
       </c>
       <c r="B275" t="s">
-        <v>574</v>
+        <v>757</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -4421,7 +5498,7 @@
         <v>276</v>
       </c>
       <c r="B276" t="s">
-        <v>575</v>
+        <v>758</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -4429,7 +5506,7 @@
         <v>277</v>
       </c>
       <c r="B277" t="s">
-        <v>576</v>
+        <v>759</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -4437,7 +5514,7 @@
         <v>278</v>
       </c>
       <c r="B278" t="s">
-        <v>577</v>
+        <v>760</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -4445,7 +5522,7 @@
         <v>279</v>
       </c>
       <c r="B279" t="s">
-        <v>578</v>
+        <v>761</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -4453,7 +5530,7 @@
         <v>280</v>
       </c>
       <c r="B280" t="s">
-        <v>579</v>
+        <v>762</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -4461,7 +5538,7 @@
         <v>281</v>
       </c>
       <c r="B281" t="s">
-        <v>580</v>
+        <v>763</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -4469,7 +5546,7 @@
         <v>282</v>
       </c>
       <c r="B282" t="s">
-        <v>581</v>
+        <v>764</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -4477,7 +5554,7 @@
         <v>283</v>
       </c>
       <c r="B283" t="s">
-        <v>582</v>
+        <v>765</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -4485,7 +5562,7 @@
         <v>284</v>
       </c>
       <c r="B284" t="s">
-        <v>583</v>
+        <v>766</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -4493,7 +5570,7 @@
         <v>285</v>
       </c>
       <c r="B285" t="s">
-        <v>584</v>
+        <v>767</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -4501,7 +5578,7 @@
         <v>286</v>
       </c>
       <c r="B286" t="s">
-        <v>585</v>
+        <v>768</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -4509,7 +5586,7 @@
         <v>287</v>
       </c>
       <c r="B287" t="s">
-        <v>586</v>
+        <v>769</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -4517,7 +5594,7 @@
         <v>288</v>
       </c>
       <c r="B288" t="s">
-        <v>587</v>
+        <v>770</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -4525,7 +5602,7 @@
         <v>289</v>
       </c>
       <c r="B289" t="s">
-        <v>588</v>
+        <v>771</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -4533,7 +5610,7 @@
         <v>290</v>
       </c>
       <c r="B290" t="s">
-        <v>589</v>
+        <v>772</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -4541,7 +5618,7 @@
         <v>291</v>
       </c>
       <c r="B291" t="s">
-        <v>590</v>
+        <v>773</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -4549,7 +5626,7 @@
         <v>292</v>
       </c>
       <c r="B292" t="s">
-        <v>591</v>
+        <v>774</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -4557,7 +5634,7 @@
         <v>293</v>
       </c>
       <c r="B293" t="s">
-        <v>592</v>
+        <v>775</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -4565,7 +5642,7 @@
         <v>294</v>
       </c>
       <c r="B294" t="s">
-        <v>593</v>
+        <v>776</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -4573,7 +5650,7 @@
         <v>295</v>
       </c>
       <c r="B295" t="s">
-        <v>594</v>
+        <v>777</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -4581,7 +5658,7 @@
         <v>296</v>
       </c>
       <c r="B296" t="s">
-        <v>595</v>
+        <v>778</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -4589,7 +5666,7 @@
         <v>297</v>
       </c>
       <c r="B297" t="s">
-        <v>596</v>
+        <v>779</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -4597,7 +5674,7 @@
         <v>298</v>
       </c>
       <c r="B298" t="s">
-        <v>597</v>
+        <v>780</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -4605,7 +5682,7 @@
         <v>299</v>
       </c>
       <c r="B299" t="s">
-        <v>598</v>
+        <v>781</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -4613,7 +5690,7 @@
         <v>300</v>
       </c>
       <c r="B300" t="s">
-        <v>599</v>
+        <v>782</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -4621,7 +5698,7 @@
         <v>301</v>
       </c>
       <c r="B301" t="s">
-        <v>600</v>
+        <v>783</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -4629,7 +5706,7 @@
         <v>302</v>
       </c>
       <c r="B302" t="s">
-        <v>601</v>
+        <v>784</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -4637,7 +5714,7 @@
         <v>303</v>
       </c>
       <c r="B303" t="s">
-        <v>602</v>
+        <v>785</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -4645,7 +5722,7 @@
         <v>304</v>
       </c>
       <c r="B304" t="s">
-        <v>603</v>
+        <v>786</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -4653,7 +5730,7 @@
         <v>305</v>
       </c>
       <c r="B305" t="s">
-        <v>604</v>
+        <v>787</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -4661,7 +5738,7 @@
         <v>306</v>
       </c>
       <c r="B306" t="s">
-        <v>605</v>
+        <v>788</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -4669,7 +5746,7 @@
         <v>307</v>
       </c>
       <c r="B307" t="s">
-        <v>606</v>
+        <v>789</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -4677,7 +5754,7 @@
         <v>308</v>
       </c>
       <c r="B308" t="s">
-        <v>607</v>
+        <v>790</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -4685,7 +5762,7 @@
         <v>309</v>
       </c>
       <c r="B309" t="s">
-        <v>608</v>
+        <v>791</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -4693,7 +5770,7 @@
         <v>310</v>
       </c>
       <c r="B310" t="s">
-        <v>609</v>
+        <v>792</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -4701,7 +5778,7 @@
         <v>311</v>
       </c>
       <c r="B311" t="s">
-        <v>610</v>
+        <v>793</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -4709,7 +5786,7 @@
         <v>312</v>
       </c>
       <c r="B312" t="s">
-        <v>611</v>
+        <v>794</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -4717,7 +5794,1471 @@
         <v>313</v>
       </c>
       <c r="B313" t="s">
-        <v>612</v>
+        <v>795</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2">
+      <c r="A314" t="s">
+        <v>314</v>
+      </c>
+      <c r="B314" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2">
+      <c r="A315" t="s">
+        <v>315</v>
+      </c>
+      <c r="B315" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2">
+      <c r="A316" t="s">
+        <v>316</v>
+      </c>
+      <c r="B316" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2">
+      <c r="A317" t="s">
+        <v>317</v>
+      </c>
+      <c r="B317" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2">
+      <c r="A318" t="s">
+        <v>318</v>
+      </c>
+      <c r="B318" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2">
+      <c r="A319" t="s">
+        <v>319</v>
+      </c>
+      <c r="B319" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2">
+      <c r="A320" t="s">
+        <v>320</v>
+      </c>
+      <c r="B320" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2">
+      <c r="A321" t="s">
+        <v>321</v>
+      </c>
+      <c r="B321" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2">
+      <c r="A322" t="s">
+        <v>322</v>
+      </c>
+      <c r="B322" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2">
+      <c r="A323" t="s">
+        <v>323</v>
+      </c>
+      <c r="B323" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2">
+      <c r="A324" t="s">
+        <v>324</v>
+      </c>
+      <c r="B324" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2">
+      <c r="A325" t="s">
+        <v>325</v>
+      </c>
+      <c r="B325" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2">
+      <c r="A326" t="s">
+        <v>326</v>
+      </c>
+      <c r="B326" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2">
+      <c r="A327" t="s">
+        <v>327</v>
+      </c>
+      <c r="B327" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2">
+      <c r="A328" t="s">
+        <v>328</v>
+      </c>
+      <c r="B328" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2">
+      <c r="A329" t="s">
+        <v>329</v>
+      </c>
+      <c r="B329" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2">
+      <c r="A330" t="s">
+        <v>330</v>
+      </c>
+      <c r="B330" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2">
+      <c r="A331" t="s">
+        <v>331</v>
+      </c>
+      <c r="B331" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2">
+      <c r="A332" t="s">
+        <v>332</v>
+      </c>
+      <c r="B332" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2">
+      <c r="A333" t="s">
+        <v>333</v>
+      </c>
+      <c r="B333" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2">
+      <c r="A334" t="s">
+        <v>334</v>
+      </c>
+      <c r="B334" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2">
+      <c r="A335" t="s">
+        <v>335</v>
+      </c>
+      <c r="B335" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2">
+      <c r="A336" t="s">
+        <v>336</v>
+      </c>
+      <c r="B336" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2">
+      <c r="A337" t="s">
+        <v>337</v>
+      </c>
+      <c r="B337" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2">
+      <c r="A338" t="s">
+        <v>338</v>
+      </c>
+      <c r="B338" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2">
+      <c r="A339" t="s">
+        <v>339</v>
+      </c>
+      <c r="B339" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2">
+      <c r="A340" t="s">
+        <v>340</v>
+      </c>
+      <c r="B340" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2">
+      <c r="A341" t="s">
+        <v>341</v>
+      </c>
+      <c r="B341" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2">
+      <c r="A342" t="s">
+        <v>342</v>
+      </c>
+      <c r="B342" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2">
+      <c r="A343" t="s">
+        <v>343</v>
+      </c>
+      <c r="B343" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2">
+      <c r="A344" t="s">
+        <v>344</v>
+      </c>
+      <c r="B344" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2">
+      <c r="A345" t="s">
+        <v>345</v>
+      </c>
+      <c r="B345" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2">
+      <c r="A346" t="s">
+        <v>346</v>
+      </c>
+      <c r="B346" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2">
+      <c r="A347" t="s">
+        <v>347</v>
+      </c>
+      <c r="B347" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2">
+      <c r="A348" t="s">
+        <v>348</v>
+      </c>
+      <c r="B348" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2">
+      <c r="A349" t="s">
+        <v>349</v>
+      </c>
+      <c r="B349" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2">
+      <c r="A350" t="s">
+        <v>350</v>
+      </c>
+      <c r="B350" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2">
+      <c r="A351" t="s">
+        <v>351</v>
+      </c>
+      <c r="B351" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2">
+      <c r="A352" t="s">
+        <v>352</v>
+      </c>
+      <c r="B352" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2">
+      <c r="A353" t="s">
+        <v>353</v>
+      </c>
+      <c r="B353" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2">
+      <c r="A354" t="s">
+        <v>354</v>
+      </c>
+      <c r="B354" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2">
+      <c r="A355" t="s">
+        <v>355</v>
+      </c>
+      <c r="B355" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2">
+      <c r="A356" t="s">
+        <v>356</v>
+      </c>
+      <c r="B356" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2">
+      <c r="A357" t="s">
+        <v>357</v>
+      </c>
+      <c r="B357" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2">
+      <c r="A358" t="s">
+        <v>358</v>
+      </c>
+      <c r="B358" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2">
+      <c r="A359" t="s">
+        <v>359</v>
+      </c>
+      <c r="B359" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2">
+      <c r="A360" t="s">
+        <v>360</v>
+      </c>
+      <c r="B360" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2">
+      <c r="A361" t="s">
+        <v>361</v>
+      </c>
+      <c r="B361" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2">
+      <c r="A362" t="s">
+        <v>362</v>
+      </c>
+      <c r="B362" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2">
+      <c r="A363" t="s">
+        <v>363</v>
+      </c>
+      <c r="B363" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2">
+      <c r="A364" t="s">
+        <v>364</v>
+      </c>
+      <c r="B364" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2">
+      <c r="A365" t="s">
+        <v>365</v>
+      </c>
+      <c r="B365" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2">
+      <c r="A366" t="s">
+        <v>366</v>
+      </c>
+      <c r="B366" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2">
+      <c r="A367" t="s">
+        <v>367</v>
+      </c>
+      <c r="B367" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2">
+      <c r="A368" t="s">
+        <v>368</v>
+      </c>
+      <c r="B368" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2">
+      <c r="A369" t="s">
+        <v>369</v>
+      </c>
+      <c r="B369" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2">
+      <c r="A370" t="s">
+        <v>370</v>
+      </c>
+      <c r="B370" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2">
+      <c r="A371" t="s">
+        <v>371</v>
+      </c>
+      <c r="B371" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2">
+      <c r="A372" t="s">
+        <v>372</v>
+      </c>
+      <c r="B372" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2">
+      <c r="A373" t="s">
+        <v>373</v>
+      </c>
+      <c r="B373" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2">
+      <c r="A374" t="s">
+        <v>374</v>
+      </c>
+      <c r="B374" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2">
+      <c r="A375" t="s">
+        <v>375</v>
+      </c>
+      <c r="B375" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2">
+      <c r="A376" t="s">
+        <v>376</v>
+      </c>
+      <c r="B376" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2">
+      <c r="A377" t="s">
+        <v>377</v>
+      </c>
+      <c r="B377" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2">
+      <c r="A378" t="s">
+        <v>378</v>
+      </c>
+      <c r="B378" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2">
+      <c r="A379" t="s">
+        <v>379</v>
+      </c>
+      <c r="B379" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2">
+      <c r="A380" t="s">
+        <v>380</v>
+      </c>
+      <c r="B380" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2">
+      <c r="A381" t="s">
+        <v>381</v>
+      </c>
+      <c r="B381" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2">
+      <c r="A382" t="s">
+        <v>382</v>
+      </c>
+      <c r="B382" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2">
+      <c r="A383" t="s">
+        <v>383</v>
+      </c>
+      <c r="B383" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2">
+      <c r="A384" t="s">
+        <v>384</v>
+      </c>
+      <c r="B384" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2">
+      <c r="A385" t="s">
+        <v>385</v>
+      </c>
+      <c r="B385" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2">
+      <c r="A386" t="s">
+        <v>386</v>
+      </c>
+      <c r="B386" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2">
+      <c r="A387" t="s">
+        <v>387</v>
+      </c>
+      <c r="B387" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2">
+      <c r="A388" t="s">
+        <v>388</v>
+      </c>
+      <c r="B388" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2">
+      <c r="A389" t="s">
+        <v>389</v>
+      </c>
+      <c r="B389" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2">
+      <c r="A390" t="s">
+        <v>390</v>
+      </c>
+      <c r="B390" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2">
+      <c r="A391" t="s">
+        <v>391</v>
+      </c>
+      <c r="B391" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2">
+      <c r="A392" t="s">
+        <v>392</v>
+      </c>
+      <c r="B392" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2">
+      <c r="A393" t="s">
+        <v>393</v>
+      </c>
+      <c r="B393" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2">
+      <c r="A394" t="s">
+        <v>394</v>
+      </c>
+      <c r="B394" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2">
+      <c r="A395" t="s">
+        <v>395</v>
+      </c>
+      <c r="B395" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2">
+      <c r="A396" t="s">
+        <v>396</v>
+      </c>
+      <c r="B396" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2">
+      <c r="A397" t="s">
+        <v>397</v>
+      </c>
+      <c r="B397" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2">
+      <c r="A398" t="s">
+        <v>398</v>
+      </c>
+      <c r="B398" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2">
+      <c r="A399" t="s">
+        <v>399</v>
+      </c>
+      <c r="B399" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2">
+      <c r="A400" t="s">
+        <v>400</v>
+      </c>
+      <c r="B400" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2">
+      <c r="A401" t="s">
+        <v>401</v>
+      </c>
+      <c r="B401" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2">
+      <c r="A402" t="s">
+        <v>402</v>
+      </c>
+      <c r="B402" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2">
+      <c r="A403" t="s">
+        <v>403</v>
+      </c>
+      <c r="B403" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2">
+      <c r="A404" t="s">
+        <v>404</v>
+      </c>
+      <c r="B404" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2">
+      <c r="A405" t="s">
+        <v>405</v>
+      </c>
+      <c r="B405" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2">
+      <c r="A406" t="s">
+        <v>406</v>
+      </c>
+      <c r="B406" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2">
+      <c r="A407" t="s">
+        <v>407</v>
+      </c>
+      <c r="B407" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2">
+      <c r="A408" t="s">
+        <v>408</v>
+      </c>
+      <c r="B408" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2">
+      <c r="A409" t="s">
+        <v>409</v>
+      </c>
+      <c r="B409" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2">
+      <c r="A410" t="s">
+        <v>410</v>
+      </c>
+      <c r="B410" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2">
+      <c r="A411" t="s">
+        <v>411</v>
+      </c>
+      <c r="B411" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2">
+      <c r="A412" t="s">
+        <v>412</v>
+      </c>
+      <c r="B412" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2">
+      <c r="A413" t="s">
+        <v>413</v>
+      </c>
+      <c r="B413" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2">
+      <c r="A414" t="s">
+        <v>414</v>
+      </c>
+      <c r="B414" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2">
+      <c r="A415" t="s">
+        <v>415</v>
+      </c>
+      <c r="B415" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2">
+      <c r="A416" t="s">
+        <v>416</v>
+      </c>
+      <c r="B416" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2">
+      <c r="A417" t="s">
+        <v>417</v>
+      </c>
+      <c r="B417" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2">
+      <c r="A418" t="s">
+        <v>418</v>
+      </c>
+      <c r="B418" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2">
+      <c r="A419" t="s">
+        <v>419</v>
+      </c>
+      <c r="B419" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2">
+      <c r="A420" t="s">
+        <v>420</v>
+      </c>
+      <c r="B420" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2">
+      <c r="A421" t="s">
+        <v>421</v>
+      </c>
+      <c r="B421" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2">
+      <c r="A422" t="s">
+        <v>422</v>
+      </c>
+      <c r="B422" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2">
+      <c r="A423" t="s">
+        <v>423</v>
+      </c>
+      <c r="B423" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2">
+      <c r="A424" t="s">
+        <v>424</v>
+      </c>
+      <c r="B424" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2">
+      <c r="A425" t="s">
+        <v>425</v>
+      </c>
+      <c r="B425" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2">
+      <c r="A426" t="s">
+        <v>426</v>
+      </c>
+      <c r="B426" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2">
+      <c r="A427" t="s">
+        <v>427</v>
+      </c>
+      <c r="B427" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2">
+      <c r="A428" t="s">
+        <v>428</v>
+      </c>
+      <c r="B428" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2">
+      <c r="A429" t="s">
+        <v>429</v>
+      </c>
+      <c r="B429" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2">
+      <c r="A430" t="s">
+        <v>430</v>
+      </c>
+      <c r="B430" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2">
+      <c r="A431" t="s">
+        <v>431</v>
+      </c>
+      <c r="B431" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2">
+      <c r="A432" t="s">
+        <v>432</v>
+      </c>
+      <c r="B432" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2">
+      <c r="A433" t="s">
+        <v>433</v>
+      </c>
+      <c r="B433" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2">
+      <c r="A434" t="s">
+        <v>434</v>
+      </c>
+      <c r="B434" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2">
+      <c r="A435" t="s">
+        <v>435</v>
+      </c>
+      <c r="B435" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2">
+      <c r="A436" t="s">
+        <v>436</v>
+      </c>
+      <c r="B436" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2">
+      <c r="A437" t="s">
+        <v>437</v>
+      </c>
+      <c r="B437" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2">
+      <c r="A438" t="s">
+        <v>438</v>
+      </c>
+      <c r="B438" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2">
+      <c r="A439" t="s">
+        <v>439</v>
+      </c>
+      <c r="B439" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2">
+      <c r="A440" t="s">
+        <v>440</v>
+      </c>
+      <c r="B440" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2">
+      <c r="A441" t="s">
+        <v>441</v>
+      </c>
+      <c r="B441" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2">
+      <c r="A442" t="s">
+        <v>442</v>
+      </c>
+      <c r="B442" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2">
+      <c r="A443" t="s">
+        <v>443</v>
+      </c>
+      <c r="B443" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2">
+      <c r="A444" t="s">
+        <v>444</v>
+      </c>
+      <c r="B444" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2">
+      <c r="A445" t="s">
+        <v>445</v>
+      </c>
+      <c r="B445" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2">
+      <c r="A446" t="s">
+        <v>446</v>
+      </c>
+      <c r="B446" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2">
+      <c r="A447" t="s">
+        <v>447</v>
+      </c>
+      <c r="B447" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2">
+      <c r="A448" t="s">
+        <v>448</v>
+      </c>
+      <c r="B448" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2">
+      <c r="A449" t="s">
+        <v>449</v>
+      </c>
+      <c r="B449" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2">
+      <c r="A450" t="s">
+        <v>450</v>
+      </c>
+      <c r="B450" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2">
+      <c r="A451" t="s">
+        <v>451</v>
+      </c>
+      <c r="B451" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2">
+      <c r="A452" t="s">
+        <v>452</v>
+      </c>
+      <c r="B452" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2">
+      <c r="A453" t="s">
+        <v>453</v>
+      </c>
+      <c r="B453" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2">
+      <c r="A454" t="s">
+        <v>454</v>
+      </c>
+      <c r="B454" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2">
+      <c r="A455" t="s">
+        <v>455</v>
+      </c>
+      <c r="B455" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2">
+      <c r="A456" t="s">
+        <v>456</v>
+      </c>
+      <c r="B456" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2">
+      <c r="A457" t="s">
+        <v>457</v>
+      </c>
+      <c r="B457" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2">
+      <c r="A458" t="s">
+        <v>458</v>
+      </c>
+      <c r="B458" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2">
+      <c r="A459" t="s">
+        <v>459</v>
+      </c>
+      <c r="B459" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2">
+      <c r="A460" t="s">
+        <v>460</v>
+      </c>
+      <c r="B460" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2">
+      <c r="A461" t="s">
+        <v>461</v>
+      </c>
+      <c r="B461" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2">
+      <c r="A462" t="s">
+        <v>462</v>
+      </c>
+      <c r="B462" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2">
+      <c r="A463" t="s">
+        <v>463</v>
+      </c>
+      <c r="B463" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2">
+      <c r="A464" t="s">
+        <v>464</v>
+      </c>
+      <c r="B464" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2">
+      <c r="A465" t="s">
+        <v>465</v>
+      </c>
+      <c r="B465" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2">
+      <c r="A466" t="s">
+        <v>466</v>
+      </c>
+      <c r="B466" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2">
+      <c r="A467" t="s">
+        <v>467</v>
+      </c>
+      <c r="B467" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2">
+      <c r="A468" t="s">
+        <v>468</v>
+      </c>
+      <c r="B468" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2">
+      <c r="A469" t="s">
+        <v>469</v>
+      </c>
+      <c r="B469" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2">
+      <c r="A470" t="s">
+        <v>470</v>
+      </c>
+      <c r="B470" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2">
+      <c r="A471" t="s">
+        <v>471</v>
+      </c>
+      <c r="B471" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2">
+      <c r="A472" t="s">
+        <v>472</v>
+      </c>
+      <c r="B472" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2">
+      <c r="A473" t="s">
+        <v>473</v>
+      </c>
+      <c r="B473" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2">
+      <c r="A474" t="s">
+        <v>474</v>
+      </c>
+      <c r="B474" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2">
+      <c r="A475" t="s">
+        <v>475</v>
+      </c>
+      <c r="B475" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2">
+      <c r="A476" t="s">
+        <v>476</v>
+      </c>
+      <c r="B476" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2">
+      <c r="A477" t="s">
+        <v>477</v>
+      </c>
+      <c r="B477" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2">
+      <c r="A478" t="s">
+        <v>478</v>
+      </c>
+      <c r="B478" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2">
+      <c r="A479" t="s">
+        <v>479</v>
+      </c>
+      <c r="B479" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2">
+      <c r="A480" t="s">
+        <v>480</v>
+      </c>
+      <c r="B480" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2">
+      <c r="A481" t="s">
+        <v>481</v>
+      </c>
+      <c r="B481" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2">
+      <c r="A482" t="s">
+        <v>482</v>
+      </c>
+      <c r="B482" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2">
+      <c r="A483" t="s">
+        <v>483</v>
+      </c>
+      <c r="B483" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2">
+      <c r="A484" t="s">
+        <v>484</v>
+      </c>
+      <c r="B484" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2">
+      <c r="A485" t="s">
+        <v>485</v>
+      </c>
+      <c r="B485" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2">
+      <c r="A486" t="s">
+        <v>486</v>
+      </c>
+      <c r="B486" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2">
+      <c r="A487" t="s">
+        <v>487</v>
+      </c>
+      <c r="B487" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2">
+      <c r="A488" t="s">
+        <v>488</v>
+      </c>
+      <c r="B488" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2">
+      <c r="A489" t="s">
+        <v>489</v>
+      </c>
+      <c r="B489" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2">
+      <c r="A490" t="s">
+        <v>490</v>
+      </c>
+      <c r="B490" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2">
+      <c r="A491" t="s">
+        <v>491</v>
+      </c>
+      <c r="B491" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2">
+      <c r="A492" t="s">
+        <v>492</v>
+      </c>
+      <c r="B492" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2">
+      <c r="A493" t="s">
+        <v>493</v>
+      </c>
+      <c r="B493" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2">
+      <c r="A494" t="s">
+        <v>494</v>
+      </c>
+      <c r="B494" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2">
+      <c r="A495" t="s">
+        <v>495</v>
+      </c>
+      <c r="B495" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2">
+      <c r="A496" t="s">
+        <v>496</v>
+      </c>
+      <c r="B496" t="s">
+        <v>971</v>
       </c>
     </row>
   </sheetData>
